--- a/Data/Mappings/Pollutant Sector Other.xlsx
+++ b/Data/Mappings/Pollutant Sector Other.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flerovskyg\Local\CESI APEI\Data\Mappings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlerovskyG\Desktop\CESI-Air-Pollutants\Data\Mappings\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="0" windowWidth="23040" windowHeight="9150"/>
+    <workbookView xWindow="2265" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Pollutant Source Other" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
   <si>
     <t>CESI Sector</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>Ore and mineral industries</t>
-  </si>
-  <si>
-    <t>Ore and mineral indutries</t>
   </si>
   <si>
     <t>Paints and solvents</t>
@@ -226,6 +223,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -235,17 +235,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -271,6 +265,9 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -344,7 +341,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Pollutant_Source_Other" displayName="Pollutant_Source_Other" ref="A2:S16" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Pollutant_Source_Other" displayName="Pollutant_Source_Other" ref="A2:S16" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="A2:S16">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -367,7 +364,7 @@
     <filterColumn colId="18" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="19">
-    <tableColumn id="1" name="CESI Sector" dataDxfId="1"/>
+    <tableColumn id="1" name="CESI Sector" dataDxfId="0"/>
     <tableColumn id="2" name="Hg"/>
     <tableColumn id="3" name="Cd"/>
     <tableColumn id="4" name="Pb"/>
@@ -656,7 +653,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -672,33 +671,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5" t="s">
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="6"/>
+      <c r="K1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="6" t="s">
-        <v>32</v>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -706,58 +705,58 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>21</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>22</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>23</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>30</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -765,16 +764,16 @@
         <v>1</v>
       </c>
       <c r="O3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -785,7 +784,7 @@
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -802,13 +801,13 @@
         <v>5</v>
       </c>
       <c r="O5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
@@ -822,10 +821,10 @@
         <v>4</v>
       </c>
       <c r="M6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -851,22 +850,22 @@
         <v>4</v>
       </c>
       <c r="K7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="O7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -906,10 +905,10 @@
         <v>3</v>
       </c>
       <c r="L9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -925,16 +924,16 @@
         <v>9</v>
       </c>
       <c r="K11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -942,19 +941,19 @@
         <v>10</v>
       </c>
       <c r="K12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -989,12 +988,12 @@
         <v>5</v>
       </c>
       <c r="M13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -1020,15 +1019,15 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -1052,19 +1051,19 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="R16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Mappings/Pollutant Sector Other.xlsx
+++ b/Data/Mappings/Pollutant Sector Other.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2265" yWindow="0" windowWidth="23040" windowHeight="9150"/>
+    <workbookView xWindow="3375" yWindow="0" windowWidth="23040" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Pollutant Source Other" sheetId="2" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
   <si>
     <t>CESI Sector</t>
   </si>
@@ -341,8 +341,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Pollutant_Source_Other" displayName="Pollutant_Source_Other" ref="A2:S16" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A2:S16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Pollutant_Source_Other" displayName="Pollutant_Source_Other" ref="A2:S15" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A2:S15">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -651,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:S15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="C14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -993,76 +993,50 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14">
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14">
-        <v>3</v>
-      </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>3</v>
-      </c>
-      <c r="I14">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="L14" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>36</v>
       </c>
       <c r="L15" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16">
-        <v>5</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>4</v>
-      </c>
-      <c r="G16">
-        <v>4</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>36</v>
-      </c>
-      <c r="L16" t="s">
-        <v>36</v>
-      </c>
-      <c r="N16" t="s">
-        <v>36</v>
-      </c>
-      <c r="R16" t="s">
-        <v>36</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="N15" t="s">
+        <v>36</v>
+      </c>
+      <c r="R15" t="s">
+        <v>36</v>
+      </c>
+      <c r="S15" t="s">
         <v>36</v>
       </c>
     </row>
